--- a/src/main/resources/multiHeads.xlsx
+++ b/src/main/resources/multiHeads.xlsx
@@ -1307,10 +1307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A15" sqref="A15:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1459,225 +1459,233 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+    <row r="14" ht="15" spans="1:2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    <row r="21" ht="15" spans="1:2">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>87</v>
-      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2"/>
-      <c r="B23" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2"/>
-      <c r="B26" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B26" s="4"/>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B29" s="4"/>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D31">
+      <c r="D33">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A22:A33"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
